--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}o-fam-req-1:The patient element is required and must be provided. {patient.exists() and patient.resolve().is(Patient)}o-fam-req-2:The date element is required and must be provided. {date.exists() and date.hasValue()}o-fam-req-3:The relationship element is required and must be provided. {relationship.exists() and relationship.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -593,7 +593,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -969,7 +969,7 @@
     <t>morphology</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-morphology|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-morphology|0.2.0}
 </t>
   </si>
   <si>
@@ -989,7 +989,7 @@
     <t>topography</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-topography|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-topography|0.2.0}
 </t>
   </si>
   <si>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Cancer Family Member History</t>
+    <t>Cancer Family Member History Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile recording of a family member's history of cancer.
-This profile is based on the core FHIR `FamilyMemberHistory` resource rather than the mCODE  [HistoryOfMetastaticCancer profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-history-of-metastatic-cancer) to allow for a broader range of cancer history documentation (not limited to metastatic cancer). It includes constraints to ensure that at least one cancer condition is recorded, along with optional extensions for cancer morphology and topography.</t>
+    <t xml:space="preserve">A profile recording of a patient's family member's history of cancer.
+This profile is based on the core FHIR `FamilyMemberHistory` resource rather than the mCODE  [HistoryOfMetastaticCancer profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-history-of-metastatic-cancer) to allow for a broader range of cancer history documentation (not limited to metastatic cancer). It includes constraints to ensure that at least one cancer condition is recorded, along with optional extensions for cancer morphology and topography.
+**Conformance:**
+FamilyMemberHistory resources representing a history of (primary or metastatic) cancer in a patient's family member in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/FamilyMemberHistory|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/FamilyMemberHistory</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -540,9 +542,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -593,11 +592,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
-    <t>Patient history is about</t>
+    <t>The patient whose family member is the subject of this history</t>
   </si>
   <si>
     <t>The person who this history concerns.</t>
@@ -665,7 +664,7 @@
     <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember</t>
   </si>
   <si>
     <t>code</t>
@@ -745,7 +744,7 @@
     <t>FamilyMemberHistory.deceased[x]</t>
   </si>
   <si>
-    <t>Dead? How old/when?</t>
+    <t>Indicates whether the family member is deceased</t>
   </si>
   <si>
     <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.</t>
@@ -969,14 +968,14 @@
     <t>morphology</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-morphology|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-family-history-member-cancer-morphology}
 </t>
   </si>
   <si>
-    <t>Cancer Morphology</t>
-  </si>
-  <si>
-    <t>The morphology of the cancer, represented by a ICD-O-3 code.</t>
+    <t>Family Member History Cancer Morphology</t>
+  </si>
+  <si>
+    <t>The morphology of a historical cancer associated to a family member of a patient, represented by an ICD-O-3 code.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -989,14 +988,14 @@
     <t>topography</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-topography|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-family-history-member-cancer-topography}
 </t>
   </si>
   <si>
-    <t>Cancer Topography</t>
-  </si>
-  <si>
-    <t>The topography of the cancer, represented by a ICD-O-3 code.</t>
+    <t>Family Member History Cancer Topography</t>
+  </si>
+  <si>
+    <t>The topography of a historical cancer associated to a family member of a patient, represented by an ICD-O-3 code.</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition:cancerCondition.modifierExtension</t>
@@ -1381,7 +1380,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="96.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.0" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -2933,28 +2932,28 @@
         <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -2987,24 +2986,24 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3027,17 +3026,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3062,14 +3061,14 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3107,7 +3106,7 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3115,14 +3114,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3141,13 +3140,13 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3198,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3213,24 +3212,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3253,19 +3252,19 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3314,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3335,18 +3334,18 @@
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3369,17 +3368,17 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3428,7 +3427,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3449,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3457,10 +3456,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3483,13 +3482,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3516,14 +3515,14 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
@@ -3561,7 +3560,7 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -3569,10 +3568,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3595,19 +3594,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3632,14 +3631,14 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3685,10 +3684,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3711,17 +3710,17 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3770,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3779,7 +3778,7 @@
         <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>99</v>
@@ -3791,7 +3790,7 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>20</v>
@@ -3799,10 +3798,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3825,19 +3824,19 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3886,7 +3885,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3895,7 +3894,7 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>99</v>
@@ -3907,7 +3906,7 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -3915,10 +3914,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3941,26 +3940,26 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="O23" t="s" s="2">
+      <c r="P23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="P23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="R23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4013,7 +4012,7 @@
         <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>99</v>
@@ -4033,10 +4032,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4059,13 +4058,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4116,7 +4115,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4137,7 +4136,7 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -4145,10 +4144,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4171,16 +4170,16 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4206,14 +4205,14 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4245,24 +4244,24 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4285,13 +4284,13 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4342,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4357,24 +4356,24 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4397,13 +4396,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4454,7 +4453,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4469,13 +4468,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4483,10 +4482,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4509,13 +4508,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4554,17 +4553,17 @@
         <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4585,7 +4584,7 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -4593,10 +4592,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4619,13 +4618,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4676,7 +4675,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4697,7 +4696,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -4705,10 +4704,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4737,7 +4736,7 @@
         <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>136</v>
@@ -4790,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4811,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -4819,14 +4818,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4848,10 +4847,10 @@
         <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>136</v>
@@ -4906,7 +4905,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4935,10 +4934,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4961,13 +4960,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4994,14 +4993,14 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -5039,7 +5038,7 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5047,10 +5046,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5073,13 +5072,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5106,14 +5105,14 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5151,7 +5150,7 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -5159,10 +5158,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5185,13 +5184,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5242,7 +5241,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5271,10 +5270,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5297,17 +5296,17 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5356,7 +5355,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5377,7 +5376,7 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -5385,10 +5384,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5411,13 +5410,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5468,7 +5467,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5489,7 +5488,7 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -5497,13 +5496,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>20</v>
@@ -5525,13 +5524,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5582,7 +5581,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5603,7 +5602,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -5611,10 +5610,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5637,13 +5636,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5694,7 +5693,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5715,7 +5714,7 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -5723,10 +5722,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5752,10 +5751,10 @@
         <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5794,17 +5793,17 @@
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5833,13 +5832,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>20</v>
@@ -5861,13 +5860,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5918,7 +5917,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5927,7 +5926,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>138</v>
@@ -5947,13 +5946,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>20</v>
@@ -5975,13 +5974,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6032,7 +6031,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6041,7 +6040,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>138</v>
@@ -6061,14 +6060,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6090,10 +6089,10 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>136</v>
@@ -6148,7 +6147,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6177,10 +6176,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6203,13 +6202,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6221,7 +6220,7 @@
         <v>20</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>20</v>
@@ -6236,14 +6235,14 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -6281,7 +6280,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -6289,10 +6288,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6315,13 +6314,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6348,14 +6347,14 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6372,7 +6371,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6393,7 +6392,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -6401,10 +6400,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6427,13 +6426,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6484,7 +6483,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6513,10 +6512,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6539,17 +6538,17 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6598,7 +6597,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6619,7 +6618,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -6627,10 +6626,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6653,13 +6652,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6710,7 +6709,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6731,7 +6730,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="377">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -996,6 +996,22 @@
   </si>
   <si>
     <t>The topography of a historical cancer associated to a family member of a patient, represented by an ICD-O-3 code.</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition:cancerCondition.extension:contributedToDeath</t>
+  </si>
+  <si>
+    <t>contributedToDeath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-family-member-condition-contributed-to-death}
+</t>
+  </si>
+  <si>
+    <t>Family Member History Condition Contributed to Death</t>
+  </si>
+  <si>
+    <t>Whether the condition contributed to the patient's family member's death</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition:cancerCondition.modifierExtension</t>
@@ -1024,6 +1040,161 @@
   <si>
     <t xml:space="preserve">Age
 </t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition:cancerCondition.onset[x].id</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.onset[x].id</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition:cancerCondition.onset[x].extension</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.onset[x].extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition:cancerCondition.onset[x].value</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.onset[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition:cancerCondition.onset[x].comparator</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.onset[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition:cancerCondition.onset[x].unit</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.onset[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition:cancerCondition.onset[x].system</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.onset[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition:cancerCondition.onset[x].code</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.onset[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition:cancerCondition.note</t>
@@ -1346,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1355,9 +1526,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="63.7421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.5859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.6640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1383,7 +1554,7 @@
     <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6058,48 +6229,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6147,7 +6316,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6156,7 +6325,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>138</v>
@@ -6168,7 +6337,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6176,42 +6345,46 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6220,7 +6393,7 @@
         <v>20</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>20</v>
@@ -6235,13 +6408,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6259,19 +6432,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6280,7 +6453,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -6288,10 +6461,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6299,7 +6472,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
@@ -6317,10 +6490,10 @@
         <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6332,7 +6505,7 @@
         <v>20</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>20</v>
@@ -6350,10 +6523,10 @@
         <v>178</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6371,10 +6544,10 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>87</v>
@@ -6392,7 +6565,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -6400,10 +6573,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6426,13 +6599,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6459,13 +6632,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6483,7 +6656,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6504,7 +6677,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6512,10 +6685,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6538,18 +6711,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -6597,7 +6768,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6618,7 +6789,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -6626,10 +6797,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6640,7 +6811,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6652,16 +6823,18 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -6709,13 +6882,13 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
@@ -6730,14 +6903,928 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN47">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6747,7 +7834,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}o-fam-req-1:The patient element is required and must be provided. {patient.exists() and patient.resolve().is(Patient)}o-fam-req-2:The date element is required and must be provided. {date.exists() and date.hasValue()}o-fam-req-3:The relationship element is required and must be provided. {relationship.exists() and relationship.coding.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}o-fam-req-1:The patient element is required and must be provided. {patient.exists()}o-fam-req-2:The date element is required and must be provided. {date.exists() and date.hasValue()}o-fam-req-3:The relationship element is required and must be provided. {relationship.exists() and relationship.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-family-member-history.xlsx
+++ b/StructureDefinition-onconova-cancer-family-member-history.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
